--- a/artQuestions.xlsx
+++ b/artQuestions.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Возможна через наших партнёров доставки КСЕ.</t>
   </si>
   <si>
-    <t xml:space="preserve">Размещение объявления Viomitra.Арт </t>
+    <t xml:space="preserve">Размещение объявления Viomitra.Арт</t>
   </si>
   <si>
     <t xml:space="preserve">Кто будет платить за торги - если они состоялись кто платит комиссию площадке Viomitra.Арт</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Оплата Viomitra.Арт</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой процент берёт Митра. Арт? </t>
+    <t xml:space="preserve">Какой процент берёт Митра. Арт?</t>
   </si>
   <si>
     <t xml:space="preserve">1% комиссия с покупателя 
@@ -313,31 +313,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,81 +533,57 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="77.95"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="true" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="40.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" s="1" customFormat="true" ht="40.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
@@ -619,14 +595,14 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4"/>
@@ -638,14 +614,14 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4"/>
@@ -657,14 +633,14 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4"/>
@@ -676,14 +652,14 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="1" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4"/>
@@ -695,14 +671,14 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="1" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4"/>
@@ -714,11 +690,11 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -733,14 +709,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="157" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="1" customFormat="true" ht="157" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4"/>
@@ -752,14 +728,14 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4"/>
@@ -771,14 +747,14 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="1" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="4"/>
@@ -790,14 +766,14 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="1" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4"/>
@@ -809,25 +785,25 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="4"/>
@@ -839,25 +815,25 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="true" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" s="1" customFormat="true" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="4"/>
@@ -869,14 +845,14 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="1" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="4"/>
@@ -887,14 +863,14 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="1" customFormat="true" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="4"/>
@@ -927,14 +903,14 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7"/>

--- a/artQuestions.xlsx
+++ b/artQuestions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t xml:space="preserve">Регистрация Viomitra.Aрт</t>
   </si>
@@ -28,73 +28,82 @@
     <t xml:space="preserve">Как я могу регистрироваться, как самозанятый / как ИП/ ФЛ/ как ЮЛ Viomitra.Арт</t>
   </si>
   <si>
+    <t xml:space="preserve">Вы можете регистрироваться в любой форме. Если Вы планируете аукцион без юридически значимых действий и без использования ЭЦП, то как физическое лицо. Как ИП и как ЮЛ- с использованием ЭЦП (юридически значимый аукцион). В зависимости от Вашей правовой формы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрация на площадке Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С информацией как зарегистрироваться Вы можете ознакомиться на сайте по ссылке https://art.viomitra.ru/Account/Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Личный кабинет Viomitra.Aрт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эцп, нужно ли эцп? Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужно, но при выборе юридически значимого аукциона. При выборе (отметка галочкой) аукциона без юридических действий - ЭЦП не нужно.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие данные заполнить ФЛ Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С информацией что заполнять и как зарегистрироваться Вы можете ознакомиться на сайте по ссылке https://art.viomitra.ru/Account/Register </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получение на почту активации Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация происходит через ссылку, которая придёт на почту, указанную при регистрации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доставка Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кто осуществляет доставку? Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доставка осуществляется нашими партнерами доставки – КСЕ служба курьерской доставки. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">На ком лежит ответственность по доставке ? Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответственность лежит на курьерской службе - наши партнеры доставки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Будет ли страховка по доставке? Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страховка может быть, по усмотрению наших партнеров по доставке. Если есть накладная с указанной стоимостью, подтверждающей цену, в упаковке, до 3 млн. рублей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доставка самолетом возможна? Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возможна через наших партнёров доставки КСЕ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размещение объявления Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кто будет платить за торги - если они состоялись кто платит комиссию площадке Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размещение лотов бесплатное, платить будет тот, кто разместил торг. С тарифами можно ознакомиться на сайте (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой лучше вид аукциона выбрать? Viomitra.Арт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для вас лучше открытый аукцион - проводится торг только на повышение стоимости товара и все участники видят ставки друг друга. Ещё существует закрытый аукцион - каждый из закрытого круга учстников предлагает свою ставку также только на повышение, но никто не видит, кто какую цену предложил. Если Вы желаете определить рыночную стоимость товара, то Вам следует выбрать англо-голландский аукцион - сначала торг идет на понижение, а затем на повышение. Обратите внимание, цена при этом типе аукциона может снизиться. Более подробно как продавать вы можете ознакомиться на сайте https://realty.viomitra.ru/howtosell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ювелирка : гис, пробирная палата, кто делает фото/видео они или мы ? Viomitra.Арт</t>
+  </si>
+  <si>
     <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Регистрация на площадке Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">С информацией как зарегистрироваться Вы можете ознакомиться на сайте по ссылке https://art.viomitra.ru/Account/Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет Viomitra.Aрт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эцп, нужно ли эцп? Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие данные заполнить ФЛ Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">С информацией что заполнять и как зарегистрироваться Вы можете ознакомиться на сайте по ссылке https://art.viomitra.ru/Account/Register </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Получение на почту активации Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация происходит через ссылку, которая придёт на почту, указанную при регистрации.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доставка Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кто осуществляет доставку? Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доставка осуществляется нашими партнерами доставки – КСЕ служба курьерской доставки. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">На ком лежит ответственность по доставке ? Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответственность лежит на курьерской службе - наши партнеры доставки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Будет ли страховка по доставке? Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доставка самолетом возможна? Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возможна через наших партнёров доставки КСЕ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Размещение объявления Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кто будет платить за торги - если они состоялись кто платит комиссию площадке Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Размещение лотов бесплатное, платить будет тот, кто разместил торг. С тарифами можно ознакомиться на сайте (?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какой лучше вид аукциона выбрать? Viomitra.Арт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для вас лучше открытый аукцион - проводится торг только на повышение стоимости товара и все участники видят ставки друг друга. Ещё существует закрытый аукцион - каждый из закрытого круга учстников предлагает свою ставку также только на повышение, но никто не видит, кто какую цену предложил. Если Вы желаете определить рыночную стоимость товара, то Вам следует выбрать англо-голландский аукцион - сначала торг идет на понижение, а затем на повышение. Обратите внимание, цена при этом типе аукциона может снизиться. Более подробно как продавать вы можете ознакомиться на сайте https://realty.viomitra.ru/howtosell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ювелирка : гис, пробирная палата, кто делает фото/видео они или мы ? Viomitra.Арт</t>
   </si>
   <si>
     <t xml:space="preserve">Стоимость Viomitra.Арт</t>
@@ -533,17 +542,17 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="77.95"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="40.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -573,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,10 +590,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -600,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -616,13 +625,13 @@
     </row>
     <row r="6" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -635,13 +644,13 @@
     </row>
     <row r="7" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -652,15 +661,15 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="1" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -673,13 +682,13 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -692,13 +701,13 @@
     </row>
     <row r="10" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -711,13 +720,13 @@
     </row>
     <row r="11" s="1" customFormat="true" ht="157" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -730,13 +739,13 @@
     </row>
     <row r="12" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -749,13 +758,13 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -768,13 +777,13 @@
     </row>
     <row r="14" s="1" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -787,24 +796,24 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -817,24 +826,24 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -847,13 +856,13 @@
     </row>
     <row r="19" s="1" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -865,13 +874,13 @@
     </row>
     <row r="20" s="1" customFormat="true" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
